--- a/docs/ST3/ST3_03.09.2024_output.xlsx
+++ b/docs/ST3/ST3_03.09.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731669514.3432827</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731669515.8834138</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731669514.3432827.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731669515.8834138.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>247.33</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>246.51</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.8200000000000216</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731669524.0974925</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731669525.4664106</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731669524.0974925.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731669525.4664106.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>247.33</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>246.51</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.8200000000000216</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731669538.2253091</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731669539.7353094</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731669538.2253091.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731669539.7353094.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>249.48</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>247.57</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-1.909999999999997</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.77</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731669543.243</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731669545.2323844</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731669543.243.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731669545.2323844.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>124.3</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>124.47</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.1700000000000017</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731669552.3001935</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731669552.3909924</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731669552.3001935.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731669552.3909924.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>6111.5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>6136.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>25</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731669552.597926</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731669555.6174617</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731669552.597926.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731669555.6174617.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6116.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>6198</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>81.5</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>1.33</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731669560.1393223</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731669561.804239</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731669560.1393223.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731669561.804239.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6200</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6184</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-16</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731669565.8010657</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731669567.1771944</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731669565.8010657.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731669567.1771944.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>465.15</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>465.3</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.1500000000000341</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731669573.2826831</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731669574.458012</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731669573.2826831.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731669574.458012.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>190.13</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>193.56</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-3.430000000000007</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-1.8</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731669575.435989</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731669577.6523986</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731669575.435989.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731669577.6523986.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>193.8</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>195.9</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>2.099999999999994</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>1.08</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731669578.0588708</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731669581.9433184</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731669578.0588708.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731669581.9433184.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>195.35</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>194.14</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-1.210000000000008</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.62</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731669591.1384425</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731669591.5086296</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731669591.1384425.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731669591.5086296.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>968.2</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>972.8</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>4.599999999999909</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731669592.2344306</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731669593.1419892</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731669592.2344306.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731669593.1419892.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>970.6</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>971</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731669595.2431414</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731669598.646013</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/CNY1731669595.2431414.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/CNY1731669598.646013.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>11.961</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>11.995</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.03399999999999892</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731669604.3282206</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731669605.0262883</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/CNY1731669604.3282206.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/CNY1731669605.0262883.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>12.053</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>12.072</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.01899999999999835</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1319,51 +1425,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731669610.4097905</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731669612.3121886</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731669610.4097905.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731669612.3121886.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>106.12</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>106.3</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.1799999999999926</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1371,51 +1483,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731669613.6843212</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731669614.339619</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731669613.6843212.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731669614.339619.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>106.38</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>107.32</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.9399999999999977</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.88</v>
       </c>
     </row>
@@ -1423,51 +1541,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731669615.1398613</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731669616.5729692</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731669615.1398613.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731669616.5729692.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>107.02</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>105.68</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-1.339999999999989</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-1.25</v>
       </c>
     </row>
@@ -1475,51 +1599,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731669620.8767498</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731669623.7794113</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731669620.8767498.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731669623.7794113.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>129.66</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>130.26</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.5999999999999943</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -1527,51 +1657,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731669630.5593033</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731669633.0682282</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731669630.5593033.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731669633.0682282.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>41.3</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>41.625</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.3250000000000028</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.79</v>
       </c>
     </row>
@@ -1579,51 +1715,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731669633.6654124</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731669634.447659</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731669633.6654124.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731669634.447659.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>41.645</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>41.45</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.1950000000000003</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.47</v>
       </c>
     </row>
@@ -1631,95 +1773,107 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731669638.370552</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731669638.370552.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731669638.370552.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>41.04</v>
       </c>
-      <c r="J24" t="n">
-        <v>41.04</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>40.76</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.2800000000000011</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731669641.9213705</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731669642.4118598</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731669641.9213705.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731669642.4118598.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>1180.8</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>1190.6</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>9.799999999999955</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.83</v>
       </c>
     </row>
@@ -1727,51 +1881,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731669642.8004758</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731669643.8729954</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731669642.8004758.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731669643.8729954.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1187.6</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1208</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>20.40000000000009</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>1.72</v>
       </c>
     </row>
@@ -1779,51 +1939,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731669644.3788567</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731669645.7789123</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731669644.3788567.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731669645.7789123.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1201.6</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1200.6</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-1</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -1831,43 +1997,49 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731669650.2611036</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731669650.2611036.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731669650.2611036.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1165.4</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1165.4</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1875,51 +2047,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731669650.9559498</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731669651.6643336</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731669650.9559498.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731669651.6643336.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>47.07</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>47.43</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.3599999999999994</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.76</v>
       </c>
     </row>
@@ -1927,51 +2105,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731669652.2367237</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731669656.5649078</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731669652.2367237.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731669656.5649078.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>47.37</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>48.15</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.7800000000000011</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>1.65</v>
       </c>
     </row>
@@ -1979,51 +2163,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731669657.5063264</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731669659.2106614</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731669657.5063264.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731669659.2106614.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>48.39</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>48.81</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.4200000000000017</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.8699999999999999</v>
       </c>
     </row>
@@ -2031,51 +2221,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731669664.4753454</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731669665.3969126</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731669664.4753454.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731669665.3969126.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>87.91</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>88.26000000000001</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.3500000000000085</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -2083,51 +2279,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731669669.3918178</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731669671.0968266</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731669669.3918178.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731669671.0968266.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>88.64</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>87.43000000000001</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-1.209999999999994</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-1.37</v>
       </c>
     </row>
@@ -2135,51 +2337,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731669674.597277</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731669677.1251583</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/SELG1731669674.597277.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/SELG1731669677.1251583.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>47.65</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>47.63</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2187,51 +2395,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731669683.707076</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731669684.5534215</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731669683.707076.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731669684.5534215.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>138.66</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>139.76</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>1.099999999999994</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.79</v>
       </c>
     </row>
@@ -2239,51 +2453,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731669685.910675</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731669687.539607</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731669685.910675.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731669687.539607.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>139.64</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>139.48</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.1599999999999966</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -2291,51 +2511,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731669694.3727243</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731669695.954011</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731669694.3727243.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731669695.954011.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>0.2794</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>0.2798</v>
       </c>
-      <c r="K37" t="n">
-        <v>0.0003999999999999559</v>
-      </c>
-      <c r="L37" t="n">
+      <c r="M37" t="n">
+        <v>0.0004000000000000115</v>
+      </c>
+      <c r="N37" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2343,51 +2569,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731669697.7763083</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731669697.8197029</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731669697.7763083.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731669697.8197029.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>0.2801</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>0.281</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.0009000000000000119</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -2395,51 +2627,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731669702.5651393</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731669704.444687</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731669702.5651393.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731669704.444687.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>15.282</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>15.351</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.06900000000000084</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -2447,51 +2685,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731669707.4815793</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731669709.6486661</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731669707.4815793.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731669709.6486661.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>15.363</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>15.261</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.1020000000000003</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>-0.66</v>
       </c>
     </row>
@@ -2499,95 +2743,107 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731669711.1938744</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731669711.1938744.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731669711.1938744.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>15.163</v>
       </c>
-      <c r="J41" t="n">
-        <v>15.163</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>15.113</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.05000000000000071</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731669713.5268016</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731669714.2401428</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731669713.5268016.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731669714.2401428.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>646.5</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>651.8</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>5.299999999999955</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.8200000000000001</v>
       </c>
     </row>
@@ -2595,51 +2851,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731669714.4278572</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731669715.2803445</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731669714.4278572.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731669715.2803445.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>650.25</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>652.5</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>2.25</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -2647,51 +2909,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731669716.1410697</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731669717.115839</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731669716.1410697.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731669717.115839.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>653.05</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>653.6</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.5500000000000682</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2699,51 +2967,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731669718.8142264</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731669720.2047815</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731669718.8142264.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731669720.2047815.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>652.8</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>650.7</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-2.099999999999909</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -2751,51 +3025,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731669723.2584968</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731669725.6063535</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731669723.2584968.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731669725.6063535.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>113.67</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>114.11</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -2803,51 +3083,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731669728.7525945</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731669730.2207627</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731669728.7525945.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731669730.2207627.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>114.37</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>113.47</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.9000000000000057</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-0.79</v>
       </c>
     </row>
@@ -2953,19 +3239,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.03299999999999947</v>
+        <v>0.01700000000000124</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.01099999999999982</v>
+        <v>0.005666666666667079</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2100000000000001</v>
+        <v>0.1199999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
@@ -3019,19 +3305,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1300000000000026</v>
+        <v>0.4100000000000037</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04333333333333419</v>
+        <v>0.1366666666666679</v>
       </c>
       <c r="E7" t="n">
-        <v>0.32</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="8">
@@ -3195,13 +3481,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.001299999999999968</v>
+        <v>0.001300000000000023</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0006499999999999839</v>
+        <v>0.0006500000000000117</v>
       </c>
       <c r="E15" t="n">
         <v>0.46</v>
